--- a/docs/base/StructureDefinition-lt-condition.xlsx
+++ b/docs/base/StructureDefinition-lt-condition.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T15:58:38+02:00</t>
+    <t>2025-10-30T19:04:29+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -728,7 +728,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.lt/fhir/base/StructureDefinition/lt-patient|0.1.0)
+    <t xml:space="preserve">Reference(https://hl7.lt/fhir/base/StructureDefinition/lt-patient|0.2.0)
 </t>
   </si>
   <si>
@@ -753,7 +753,7 @@
     <t>Condition.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.lt/fhir/base/StructureDefinition/lt-encounter|0.1.0)
+    <t xml:space="preserve">Reference(https://hl7.lt/fhir/base/StructureDefinition/lt-encounter|0.2.0)
 </t>
   </si>
   <si>
@@ -934,7 +934,7 @@
     <t>Condition.participant.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.lt/fhir/base/StructureDefinition/lt-practitioner|0.1.0|https://hl7.lt/fhir/base/StructureDefinition/lt-practitioner-role|0.1.0|https://hl7.lt/fhir/base/StructureDefinition/lt-patient|0.1.0|https://hl7.lt/fhir/base/StructureDefinition/lt-related-person|0.1.0|Device|5.0.0)
+    <t xml:space="preserve">Reference(https://hl7.lt/fhir/base/StructureDefinition/lt-practitioner|0.2.0|https://hl7.lt/fhir/base/StructureDefinition/lt-practitioner-role|0.2.0|https://hl7.lt/fhir/base/StructureDefinition/lt-patient|0.2.0|https://hl7.lt/fhir/base/StructureDefinition/lt-related-person|0.2.0|Device|5.0.0)
 </t>
   </si>
   <si>
